--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -83,6 +83,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -62,66 +62,66 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>column1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>column2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>column3</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>class java.lang.Long</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>class java.lang.String</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>class java.lang.String</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>null</t>
+          <t>class java.lang.String</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>col1 of 1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>col2 of 1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>col3 of 1</t>
         </is>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -7,12 +7,44 @@
   </bookViews>
   <sheets>
     <sheet name="Dummy" r:id="rId3" sheetId="1"/>
+    <sheet name="String" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>column1</t>
+  </si>
+  <si>
+    <t>column2</t>
+  </si>
+  <si>
+    <t>column3</t>
+  </si>
+  <si>
+    <t>class java.lang.Long</t>
+  </si>
+  <si>
+    <t>class java.lang.String</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>col1 of 1</t>
+  </si>
+  <si>
+    <t>col2 of 1</t>
+  </si>
+  <si>
+    <t>col3 of 1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,4 +162,59 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yun\Dropbox\kian.yun\2022\workspace\service\bridge\jpaexl\"/>
     </mc:Choice>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Dummy" sheetId="1" r:id="rId1"/>
+    <sheet name="String" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -49,12 +50,34 @@
   </si>
   <si>
     <t>col3 of 1</t>
+  </si>
+  <si>
+    <t>java.lang.Long</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>javax.persistence.Id</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>col1 of 2</t>
+  </si>
+  <si>
+    <t>col2 of 2</t>
+  </si>
+  <si>
+    <t>col3 of 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,4 +454,37 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,19 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>col1 of 1</t>
-  </si>
-  <si>
-    <t>col2 of 1</t>
-  </si>
-  <si>
-    <t>col3 of 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +33,30 @@
   </si>
   <si>
     <t>javax.persistence.Id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>col1 of 1</t>
+  </si>
+  <si>
+    <t>col2 of 1</t>
+  </si>
+  <si>
+    <t>col3 of 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>col1 of 2</t>
+  </si>
+  <si>
+    <t>col2 of 2</t>
+  </si>
+  <si>
+    <t>col3 of 2</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -97,49 +109,63 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>java.lang.String</t>
-  </si>
-  <si>
-    <t>javax.persistence.Id</t>
   </si>
   <si>
     <t>1</t>
@@ -101,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -139,33 +136,42 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="String" r:id="rId3" sheetId="1"/>
+    <sheet name="Dummy" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -177,4 +178,22 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="String" r:id="rId3" sheetId="1"/>
-    <sheet name="Dummy" r:id="rId4" sheetId="2"/>
+    <sheet name="Dummy" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -99,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -149,47 +148,15 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -160,6 +160,90 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>col3 of 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>col1 of 2</t>
-  </si>
-  <si>
-    <t>col2 of 2</t>
-  </si>
-  <si>
-    <t>col3 of 2</t>
   </si>
 </sst>
 </file>
@@ -98,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -133,115 +121,83 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="s">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>col3 of 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>col1 of 2</t>
+  </si>
+  <si>
+    <t>col2 of 2</t>
+  </si>
+  <si>
+    <t>col3 of 2</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -121,83 +133,45 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-    </row>
-    <row r="7">
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-    </row>
-    <row r="8">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-    </row>
-    <row r="9">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15">
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,6 +174,174 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>col1 of 2</t>
+  </si>
+  <si>
+    <t>col2 of 2</t>
+  </si>
+  <si>
+    <t>col3 of 2</t>
   </si>
 </sst>
 </file>
@@ -95,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -152,6 +167,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/jpaexl.xlsx
+++ b/jpaexl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,6 +201,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
